--- a/TP04/documents/Liste de vérification du design détaillé.xlsx
+++ b/TP04/documents/Liste de vérification du design détaillé.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Liste de vérification du design détaillé</t>
   </si>
@@ -43,6 +41,9 @@
   </si>
   <si>
     <t>✔</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -409,64 +410,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -478,28 +491,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>